--- a/public/static/template/fhmx.xlsx
+++ b/public/static/template/fhmx.xlsx
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
   <si>
     <t>主体单位</t>
   </si>
@@ -129,52 +129,28 @@
     <t>海门市中南融通农村小额贷款有限公司</t>
   </si>
   <si>
-    <t>备注1</t>
-  </si>
-  <si>
     <t>江苏南通农村商业银行股份有限公司</t>
   </si>
   <si>
-    <t>备注2</t>
-  </si>
-  <si>
     <t>江苏金创信用再担保股份有限公司</t>
   </si>
   <si>
-    <t>备注3</t>
-  </si>
-  <si>
     <t>江苏建银商业保理有限公司</t>
   </si>
   <si>
-    <t>备注4</t>
-  </si>
-  <si>
     <t>国信锦城融资租赁有限公司</t>
   </si>
   <si>
-    <t>备注5</t>
-  </si>
-  <si>
     <t>中南控股集团（上海）资产管理有限公司</t>
   </si>
   <si>
-    <t>备注6</t>
-  </si>
-  <si>
     <t>中南装饰</t>
   </si>
   <si>
-    <t>备注7</t>
-  </si>
-  <si>
     <t>中南城投</t>
   </si>
   <si>
     <t>江苏中南建设集团有限公司</t>
-  </si>
-  <si>
-    <t>备注8</t>
   </si>
 </sst>
 </file>
@@ -1193,7 +1169,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="C2" sqref="C2:M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.46428571428571" defaultRowHeight="14.4" customHeight="1"/>
@@ -1255,326 +1231,150 @@
       <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="6">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6">
-        <v>2</v>
-      </c>
-      <c r="E2" s="8">
-        <v>3</v>
-      </c>
-      <c r="F2" s="8">
-        <v>4</v>
-      </c>
-      <c r="G2" s="9">
-        <v>5</v>
-      </c>
-      <c r="H2" s="9">
-        <v>6</v>
-      </c>
-      <c r="I2" s="8">
-        <v>7</v>
-      </c>
-      <c r="J2" s="8">
-        <v>8</v>
-      </c>
-      <c r="K2" s="8">
-        <v>9</v>
-      </c>
-      <c r="L2" s="8">
-        <v>10</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>15</v>
-      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="10"/>
     </row>
     <row r="3" ht="27" customHeight="1" spans="1:13">
       <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="6">
-        <v>2</v>
-      </c>
-      <c r="D3" s="6">
-        <v>3</v>
-      </c>
-      <c r="E3" s="8">
-        <v>4</v>
-      </c>
-      <c r="F3" s="8">
-        <v>5</v>
-      </c>
-      <c r="G3" s="9">
-        <v>6</v>
-      </c>
-      <c r="H3" s="9">
-        <v>7</v>
-      </c>
-      <c r="I3" s="8">
-        <v>8</v>
-      </c>
-      <c r="J3" s="8">
-        <v>9</v>
-      </c>
-      <c r="K3" s="8">
-        <v>10</v>
-      </c>
-      <c r="L3" s="8">
-        <v>11</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="10"/>
     </row>
     <row r="4" ht="30" customHeight="1" spans="1:13">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="6">
-        <v>3</v>
-      </c>
-      <c r="D4" s="6">
-        <v>4</v>
-      </c>
-      <c r="E4" s="8">
-        <v>5</v>
-      </c>
-      <c r="F4" s="8">
-        <v>6</v>
-      </c>
-      <c r="G4" s="9">
-        <v>7</v>
-      </c>
-      <c r="H4" s="9">
-        <v>8</v>
-      </c>
-      <c r="I4" s="8">
-        <v>9</v>
-      </c>
-      <c r="J4" s="8">
-        <v>10</v>
-      </c>
-      <c r="K4" s="8">
-        <v>11</v>
-      </c>
-      <c r="L4" s="8">
-        <v>12</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="10"/>
     </row>
     <row r="5" ht="28" customHeight="1" spans="1:13">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="6">
-        <v>4</v>
-      </c>
-      <c r="D5" s="6">
-        <v>5</v>
-      </c>
-      <c r="E5" s="8">
-        <v>6</v>
-      </c>
-      <c r="F5" s="8">
-        <v>7</v>
-      </c>
-      <c r="G5" s="9">
-        <v>8</v>
-      </c>
-      <c r="H5" s="9">
-        <v>9</v>
-      </c>
-      <c r="I5" s="8">
-        <v>10</v>
-      </c>
-      <c r="J5" s="8">
-        <v>11</v>
-      </c>
-      <c r="K5" s="8">
-        <v>12</v>
-      </c>
-      <c r="L5" s="8">
-        <v>13</v>
-      </c>
-      <c r="M5" s="10" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="10"/>
     </row>
     <row r="6" ht="27" customHeight="1" spans="1:13">
       <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="6">
-        <v>5</v>
-      </c>
-      <c r="D6" s="6">
-        <v>6</v>
-      </c>
-      <c r="E6" s="8">
-        <v>7</v>
-      </c>
-      <c r="F6" s="8">
-        <v>8</v>
-      </c>
-      <c r="G6" s="9">
-        <v>9</v>
-      </c>
-      <c r="H6" s="9">
-        <v>10</v>
-      </c>
-      <c r="I6" s="8">
-        <v>11</v>
-      </c>
-      <c r="J6" s="8">
-        <v>12</v>
-      </c>
-      <c r="K6" s="8">
-        <v>13</v>
-      </c>
-      <c r="L6" s="8">
-        <v>14</v>
-      </c>
-      <c r="M6" s="10" t="s">
-        <v>23</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="10"/>
     </row>
     <row r="7" ht="23" customHeight="1" spans="1:13">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="6">
-        <v>6</v>
-      </c>
-      <c r="D7" s="6">
-        <v>7</v>
-      </c>
-      <c r="E7" s="8">
-        <v>8</v>
-      </c>
-      <c r="F7" s="8">
-        <v>9</v>
-      </c>
-      <c r="G7" s="9">
-        <v>10</v>
-      </c>
-      <c r="H7" s="9">
-        <v>11</v>
-      </c>
-      <c r="I7" s="8">
-        <v>12</v>
-      </c>
-      <c r="J7" s="8">
-        <v>13</v>
-      </c>
-      <c r="K7" s="8">
-        <v>14</v>
-      </c>
-      <c r="L7" s="8">
-        <v>15</v>
-      </c>
-      <c r="M7" s="10" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="10"/>
     </row>
     <row r="8" ht="21" customHeight="1" spans="1:13">
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="6">
-        <v>7</v>
-      </c>
-      <c r="D8" s="6">
-        <v>8</v>
-      </c>
-      <c r="E8" s="8">
-        <v>9</v>
-      </c>
-      <c r="F8" s="8">
-        <v>10</v>
-      </c>
-      <c r="G8" s="9">
-        <v>11</v>
-      </c>
-      <c r="H8" s="9">
-        <v>12</v>
-      </c>
-      <c r="I8" s="8">
-        <v>13</v>
-      </c>
-      <c r="J8" s="8">
-        <v>14</v>
-      </c>
-      <c r="K8" s="8">
-        <v>15</v>
-      </c>
-      <c r="L8" s="8">
-        <v>16</v>
-      </c>
-      <c r="M8" s="10" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="10"/>
     </row>
     <row r="9" ht="28" customHeight="1" spans="1:13">
       <c r="A9" s="4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="6">
-        <v>8</v>
-      </c>
-      <c r="D9" s="6">
-        <v>9</v>
-      </c>
-      <c r="E9" s="8">
-        <v>10</v>
-      </c>
-      <c r="F9" s="8">
-        <v>11</v>
-      </c>
-      <c r="G9" s="9">
-        <v>12</v>
-      </c>
-      <c r="H9" s="9">
-        <v>13</v>
-      </c>
-      <c r="I9" s="8">
-        <v>14</v>
-      </c>
-      <c r="J9" s="8">
-        <v>15</v>
-      </c>
-      <c r="K9" s="8">
-        <v>16</v>
-      </c>
-      <c r="L9" s="8">
-        <v>17</v>
-      </c>
-      <c r="M9" s="10" t="s">
-        <v>30</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/static/template/fhmx.xlsx
+++ b/public/static/template/fhmx.xlsx
@@ -13,76 +13,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Unknown User</author>
-  </authors>
-  <commentList>
-    <comment ref="E5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">作者:
-2021.09收506.38万元
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-  - Meow7</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-款项尚未收到</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-  - Meow7</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
   <si>
     <t>主体单位</t>
   </si>
@@ -90,6 +22,9 @@
     <t>客商</t>
   </si>
   <si>
+    <t>汇总</t>
+  </si>
+  <si>
     <t>2022年</t>
   </si>
   <si>
@@ -144,13 +79,19 @@
     <t>中南控股集团（上海）资产管理有限公司</t>
   </si>
   <si>
+    <t>小计</t>
+  </si>
+  <si>
+    <t>中南城投</t>
+  </si>
+  <si>
+    <t>江苏中南建设集团有限公司</t>
+  </si>
+  <si>
+    <t>合计</t>
+  </si>
+  <si>
     <t>中南装饰</t>
-  </si>
-  <si>
-    <t>中南城投</t>
-  </si>
-  <si>
-    <t>江苏中南建设集团有限公司</t>
   </si>
 </sst>
 </file>
@@ -158,11 +99,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -205,29 +146,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,6 +176,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -249,17 +227,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,81 +288,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -357,19 +298,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,43 +400,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,120 +418,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -566,11 +507,57 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -593,17 +580,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,159 +641,129 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -794,26 +772,26 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -826,17 +804,35 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1166,34 +1162,35 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:M9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.46428571428571" defaultRowHeight="14.4" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11.3571428571429" defaultRowHeight="14.4" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.6785714285714" style="1" customWidth="1"/>
-    <col min="2" max="2" width="52.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.46428571428571" style="1"/>
-    <col min="4" max="6" width="10.8928571428571" style="1"/>
-    <col min="7" max="10" width="9.46428571428571" style="1"/>
-    <col min="11" max="11" width="10.8928571428571" style="1"/>
-    <col min="12" max="13" width="9.46428571428571" style="1"/>
+    <col min="1" max="1" width="21.2142857142857" style="1" customWidth="1"/>
+    <col min="2" max="2" width="63" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.3928571428571" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.3571428571429" style="1"/>
+    <col min="5" max="7" width="13.0714285714286" style="1"/>
+    <col min="8" max="11" width="11.3571428571429" style="1"/>
+    <col min="12" max="12" width="13.0714285714286" style="1"/>
+    <col min="13" max="14" width="11.3571428571429" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1" spans="1:13">
+    <row r="1" ht="30" customHeight="1" spans="1:14">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -1223,162 +1220,231 @@
       <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" ht="31" customHeight="1" spans="1:13">
+    <row r="2" ht="31" customHeight="1" spans="1:14">
       <c r="A2" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="6">
+        <f>SUM(E2:M2)</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="16"/>
+    </row>
+    <row r="3" ht="27" customHeight="1" spans="1:14">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="6">
+        <f t="shared" ref="C2:C7" si="0">SUM(E3:M3)</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="16"/>
+    </row>
+    <row r="4" ht="30" customHeight="1" spans="1:14">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="16"/>
+    </row>
+    <row r="5" ht="28" customHeight="1" spans="1:14">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="16"/>
+    </row>
+    <row r="6" ht="27" customHeight="1" spans="1:14">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="16"/>
+    </row>
+    <row r="7" ht="23" customHeight="1" spans="1:14">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="16"/>
+    </row>
+    <row r="8" ht="23" customHeight="1" spans="1:14">
+      <c r="A8" s="10"/>
+      <c r="B8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="11">
+        <f>SUM(C2:C7)</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="16"/>
+    </row>
+    <row r="9" ht="21" customHeight="1" spans="1:14">
+      <c r="A9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="5">
+        <f>SUM(E9:M9)</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="16"/>
+    </row>
+    <row r="10" ht="28" customHeight="1" spans="1:14">
+      <c r="A10" s="4"/>
+      <c r="B10" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="13">
+        <f>C8+C9</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="16"/>
+    </row>
+    <row r="11" ht="17.25" customHeight="1" spans="1:14">
+      <c r="A11" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="10"/>
-    </row>
-    <row r="3" ht="27" customHeight="1" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="10"/>
-    </row>
-    <row r="4" ht="30" customHeight="1" spans="1:13">
-      <c r="A4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="10"/>
-    </row>
-    <row r="5" ht="28" customHeight="1" spans="1:13">
-      <c r="A5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="10"/>
-    </row>
-    <row r="6" ht="27" customHeight="1" spans="1:13">
-      <c r="A6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="10"/>
-    </row>
-    <row r="7" ht="23" customHeight="1" spans="1:13">
-      <c r="A7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="10"/>
-    </row>
-    <row r="8" ht="21" customHeight="1" spans="1:13">
-      <c r="A8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="10"/>
-    </row>
-    <row r="9" ht="28" customHeight="1" spans="1:13">
-      <c r="A9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="10"/>
+      <c r="B11" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="11">
+        <f>SUM(E11:M11)</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="16"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A8"/>
+  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>